--- a/datosFORSEG2.xlsx
+++ b/datosFORSEG2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Número</t>
   </si>
@@ -34,19 +34,31 @@
     <t>51915041603</t>
   </si>
   <si>
+    <t>luis lopez</t>
+  </si>
+  <si>
+    <t>San Miguel</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>12345678 x</t>
+  </si>
+  <si>
+    <t>2 mascariilas, marca NIKE, talla 23, Modelo alcatraz</t>
+  </si>
+  <si>
     <t>Luis Lopez</t>
   </si>
   <si>
-    <t>San Miguel</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>12345678 x</t>
-  </si>
-  <si>
-    <t>2 mascariilas, marca NIKE, talla 23, Modelo alcatraz</t>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2 mascariilas, talla 23</t>
   </si>
 </sst>
 </file>
@@ -423,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -464,6 +476,26 @@
       </c>
       <c r="F2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
